--- a/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
+++ b/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22905"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="28940" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文化休闲" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="学校教育" sheetId="5" r:id="rId5"/>
     <sheet name="科学技术" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
   <si>
     <t>SOURCE</t>
   </si>
@@ -388,9 +388,6 @@
     <t>20140427NA</t>
   </si>
   <si>
-    <t>Do you agree or disagree with the statement that cellphones are important for running a successful business.</t>
-  </si>
-  <si>
     <t>Do you agree or disagree with the statement that governments should spend money on encouraging citizens to live healthier life style?</t>
   </si>
   <si>
@@ -623,10 +620,6 @@
   </si>
   <si>
     <t>20131123ML</t>
-  </si>
-  <si>
-    <t>Some people prefer to buy high-tech products as soon as they are introduced to the market, other prefer to wait for some time to get them. Which do you prefer?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">high-tech products </t>
@@ -653,10 +646,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Talk about the benefits the internet brings to your life. Give your details and examples in your answer.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -674,13 +663,6 @@
   </si>
   <si>
     <t>Do you agree or disagree with the following statement, technology has made people's life a lot easier than before? Give specific reasons and details in your answer.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Well, personally there are a lot of benefits the internet brings to my life.
-First, the Internet could facilitate my study. For example, when I have a hard lesson. I can use the Internet to seach for useful information in a very short time.  And these information always could help me to understand the lesson better. This is really a efficient way to study lessons.
-And also, I can surf the Internet to have fun. For example, after a day of hard study I could search some online games through the Internet.  I really feel relax everytime I play these online games. Bedises I can search for some pop music and moives through the Internet. It could release my pressure of hard study. 
-So the Internet brings a lot benrfits to my lifes.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -794,11 +776,176 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Personally, I prefer to bring my mobole phone with me at all times.
-Firstly becasue, mobile phone provides convenience to me and it makes life easy.
+    <t>Do you agree or disagree with the statement that cellphones are important for running a successful business.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Well, personally there are a lot of benefits the internet brings to my life.
+First, the Internet  facilitates my study. For example, when I have a hard lesson. I can use the Internet to search for useful information in a very short time.  And these information always could help me to understand(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>realise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) the lesson better. This is really an efficient way to study lessons.
+And also, I can surf the Internet to get fun. For example, after a day of hard study I often search some online games through the Internet.  Everytime play these online games, I really feel relax and enjoyable . Besides I can search for some pop music and movies through the Internet. It could release my pressure of tough study. 
+So the Internet brings a lot benefits to my lives.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurately and effectively retrieve information from the mass of information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, personally I agree that the internet plays a big role in our life.
+Firstly because surfing the internet to get fun is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>indispensable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> activities in our daily lives.For example, I often paly online games after a day of tough study. It makes me feel relax and it is really a good way to release pressure.
+Secondly because the internet provides the efficent way to gain knowledge. Before the internet, we gain knowledge just from books and it is really a limited way. Nowdays we can use the power  search engine to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  retrieve information from the mass of information accurately and effectively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+And the search engine is based on the internet.
+So in my opinion, the internet is really a big role in our life.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personally, I prefer to bring my mobile phone with me at all times.
+Firstly becuase mobile phone provides convenience to me and it makes life easy.
 For example, once I traveled to a new place. I do not too familiar with roads there. Since I have my mobile phone with me at all times, I could take my phone at once and look up the electronic map. In that travel I never got lost and had a good time.
-Secondly because, as an aldult in modern life , I should keep in touch with my close friends and  raletives.For exaple,if my parent had an emergency, like illness, thay can make a phone call to my. And I would know their problem in the first time. So I can give a help timely.
+Secondly because, as an adult in modern life , I should keep in touch with my close friends and  relatives.For example,if my parent had an emergency, like illness, thay can make a phone call to my. And I would know their problem in the first time. So I can give a help timely.
 So in my opinion, it is better to bring my mobile phone with me at all times.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk about the benefits the internet brings to your life. Give your details and examples in your answer.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some people prefer to buy high-tech products as soon as they are introduced to the market, other prefer to wait for some time to get them. Which do you prefer?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新上市的产品
+发布
+饥饿销售
+苹果公司
+普通渠道
+中间商/代理商
+热度过去之后
+瑕疵
+开发商
+修复和升级
+(产品)上市
+轻薄
+经过几代的发展
+性能
+用户体验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new products
+release
+Hunger sales????
+Apple Company
+？？？
+Agency
+the heat  passed
+flaw/shortcomings
+developers
+repair and upgrade
+list  launch
+thin and light 
+After generations of development
+preformance
+user experience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、新上市的产品贵。
+     新上市的高科技产品总是很贵。例如在苹果每次发布新产品总是会进行饥饿销售。一般人很难通过普通渠道买到它。如果想买就必须通过中间商高价购买。往往等新商品上市的热度过去之后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人们不那么追捧它了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，它的价钱就会变得更加合理和便宜。
+2、新上市的产品技术不成熟。
+刚上市的高科技产品没有经过市场检验会有很多瑕疵。如果等待一段时间，开发商往往会根据用户反馈在技术上对商品进行修复和升级。这个时候去买往往能获得更好的使用体验。例如第一代苹果手机上市的时候就有很多问题，类似不够轻薄，运行速度不够快。但是经过了几代的发展，如今的苹果手机在性能上取得了巨大的飞跃。使用最新版的苹果手机，会获得更好的用户体验。
+---------------------------------------------------------------
+I prefer to wait for some time to bug high-tech products after they are introduced to the market.
+Firstly because new products are always very expensive. For example, Apple Company like to use hunger sales stratage every time it releases new products. It is vary hard to bug the new products just in a apple store. If someone want to buy it, he/she should to find a agency to buy it in a more expensive price. But the heat passed, its price could become reasonable and cheaper.
+Secondly because the new high-tech products often have some flaw. If we wait for some time,  
+developers would repair and upgrade the new high-tech product. For example, when the first generation of iPhone launch, it had many shortcomings ，like is it not thin and light enough, its cpu is not fast enough. But after generations of development, today iPhone has made big progress in preformance. If you use the latest generation of iPhone you would have a better user experience.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -867,6 +1014,12 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -897,7 +1050,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="409">
+  <cellStyleXfs count="557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1307,8 +1460,156 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1334,11 +1635,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="409">
+  <cellStyles count="557">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1543,6 +1841,80 @@
     <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1747,15 +2119,83 @@
     <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -1778,6 +2218,12 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1948,17 +2394,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="B1:F8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" dataCellStyle="普通">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="B1:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="普通">
   <autoFilter ref="B1:F8"/>
   <sortState ref="B2:F21">
-    <sortCondition sortBy="cellColor" ref="E1:E21" dxfId="7"/>
+    <sortCondition sortBy="cellColor" ref="E1:E21" dxfId="5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="6" dataCellStyle="普通"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="5" dataCellStyle="普通"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="4" dataCellStyle="普通"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="3" dataCellStyle="普通"/>
-    <tableColumn id="5" name="Column2" dataDxfId="2" dataCellStyle="普通"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="4" dataCellStyle="普通"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="3" dataCellStyle="普通"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="2" dataCellStyle="普通"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="1" dataCellStyle="普通"/>
+    <tableColumn id="5" name="Column2" dataDxfId="0" dataCellStyle="普通"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2253,7 +2699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2441,101 +2887,101 @@
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="68">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="51">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51">
@@ -2546,18 +2992,18 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2729,52 +3175,52 @@
     </row>
     <row r="11" spans="1:5" ht="34">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="34">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2950,156 +3396,156 @@
     </row>
     <row r="8" spans="1:5" ht="51">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="34">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="34">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="51">
       <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="34">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="51">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="51">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="34">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="51">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="85">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="34">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3336,104 +3782,104 @@
     </row>
     <row r="15" spans="1:5" ht="34">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="34">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="34">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="34">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="34">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="34">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="34">
       <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3745,57 +4191,57 @@
     </row>
     <row r="25" spans="1:3" ht="34">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3816,10 +4262,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3861,10 +4307,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -3879,10 +4325,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -3896,11 +4342,11 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>205</v>
+      <c r="D4" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -3909,16 +4355,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3927,16 +4373,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>196</v>
+      <c r="D6" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -3945,16 +4391,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -3963,16 +4409,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -3984,22 +4430,51 @@
         <v>213</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="170">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="170">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="153">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="E13" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="391">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
+++ b/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22905"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文化休闲" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
   <si>
     <t>SOURCE</t>
   </si>
@@ -654,15 +654,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Some people think that robots will be very helpful for us in the future, others think robots will never be as smart as human. Which do you agree with?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>technology</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you agree or disagree with the following statement, technology has made people's life a lot easier than before? Give specific reasons and details in your answer.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -881,24 +873,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新上市的产品
-发布
-饥饿销售
-苹果公司
-普通渠道
-中间商/代理商
-热度过去之后
-瑕疵
-开发商
-修复和升级
-(产品)上市
-轻薄
-经过几代的发展
-性能
-用户体验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>new products
 release
 Hunger sales????
@@ -914,6 +888,47 @@
 After generations of development
 preformance
 user experience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新上市的产品
+发布
+饥饿销售
+苹果公司
+普通渠道--苹果商店
+中间商/代理商
+热度过去之后
+瑕疵
+开发商
+修复和升级
+(产品)上市
+轻薄
+经过几代的发展
+性能
+用户体验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some people think that robots will be very helpful for us in the future, others think robots will never be as smart as human. Which do you agree with?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A（A-）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A和B？？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、机器人可以做一些重复性体力劳动，让人类从体力劳动中解放出来，去做更有创造性的工作。
+2、节约生产成本，促进商业发展。
+---------------------------------------------------------------
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -942,10 +957,107 @@
 刚上市的高科技产品没有经过市场检验会有很多瑕疵。如果等待一段时间，开发商往往会根据用户反馈在技术上对商品进行修复和升级。这个时候去买往往能获得更好的使用体验。例如第一代苹果手机上市的时候就有很多问题，类似不够轻薄，运行速度不够快。但是经过了几代的发展，如今的苹果手机在性能上取得了巨大的飞跃。使用最新版的苹果手机，会获得更好的用户体验。
 ---------------------------------------------------------------
 I prefer to wait for some time to bug high-tech products after they are introduced to the market.
-Firstly because new products are always very expensive. For example, Apple Company like to use hunger sales stratage every time it releases new products. It is vary hard to bug the new products just in a apple store. If someone want to buy it, he/she should to find a agency to buy it in a more expensive price. But the heat passed, its price could become reasonable and cheaper.
+Firstly because new products are always very expensive. For example, Apple Company like to use hunger sales stratage every time it releases new products. It is vary hard to bug the new products just in an apple store. If someone want to buy it, he/she should to find an agency to buy it in a more expensive price. But after the heat passed, its price could become reasonable and cheaper.
 Secondly because the new high-tech products often have some flaw. If we wait for some time,  
 developers would repair and upgrade the new high-tech product. For example, when the first generation of iPhone launch, it had many shortcomings ，like is it not thin and light enough, its cpu is not fast enough. But after generations of development, today iPhone has made big progress in preformance. If you use the latest generation of iPhone you would have a better user experience.</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the following statement, technology has made people's life a lot easier than before? Give specific reasons and details in your answer.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突发问题
+患急性病
+很可能因为
+及时赶到医院
+最佳治疗时间
+纸质地图
+只能依靠
+sth.随处能买到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">emergencies/unexpected problems
+suffer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>acute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> disease
+it's probably because ... to
+get to the hospital in time
+the most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> treatment time
+brought  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>irreversible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> loss
+a paper map
+could only depend on the
+sth. wasn't for sale everywhere</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> technology has made people's life a lot easier than before
+1、手机使人们保持联系，解决紧急突发问题。
+     例如,如果当人突发急性疾病，他们能通过电话第一时间拨打医院的紧急救助电话，可以给到一个及时的治疗。在过去很能因为无法及时赶到医院而错过最佳治疗时间，造成不可预期的损失。
+2、电子地图帮助人们在外地不会走丢。
+例如，人们去一个新的地方旅行。如果不熟悉当地交通，可以使用手机电子地图来导航。从而不会走失，获得一个愉快的旅行。在过去只能依靠纸质的地图，但是纸质地图不是随处能买到的，就会十分不便。
+---------------------------------------------------------------
+I agree that technology has made people's life a lot easier than before.
+Technology such as mobile phone , electronic map and so no bring a lot of benefit to people's life.
+Like mobile phone, it enable people stay in touch with others, when people get emergencies they can get a timely help. For example, if someone suffer acute disease when he or she is alone, he or she could make a phone call to hospital to ask help. And then he or she could get a treatment in time.  However, in the past days, it is probably that for people could not get to hospital in time  and misses the most optional treatment time and got irreverible loss.
+Another example is the technology of electronic map. If people traveled to a new place, and they do not familier with roads there. They could use the map app to navigate. So they would never get lost and have a good time. However, in the past ,people could only depend on a paper map. Since it is not for sale everywhere, it is not convenient enough.
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="557">
+  <cellStyleXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1608,8 +1720,96 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1635,8 +1835,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="557">
+  <cellStyles count="645">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1915,6 +2118,50 @@
     <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2193,6 +2440,50 @@
     <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="37">
@@ -4262,10 +4553,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4307,12 +4598,14 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="34">
       <c r="A3" s="8">
@@ -4325,12 +4618,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8">
@@ -4348,7 +4643,9 @@
       <c r="E4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="34">
       <c r="A5" s="8">
@@ -4361,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>200</v>
@@ -4379,12 +4676,14 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="34">
       <c r="A7" s="8">
@@ -4396,13 +4695,15 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>203</v>
+      <c r="D7" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="34">
       <c r="A8" s="8">
@@ -4414,26 +4715,28 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>205</v>
+      <c r="D8" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="153">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="170">
@@ -4441,11 +4744,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="170">
@@ -4453,7 +4756,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>201</v>
@@ -4464,17 +4767,36 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="4"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="68">
+      <c r="A15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="391">
+      <c r="A16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
+++ b/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
@@ -4,16 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22905"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="1840" yWindow="0" windowWidth="20820" windowHeight="15580" tabRatio="619" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="文化休闲" sheetId="1" r:id="rId1"/>
-    <sheet name="家庭社会" sheetId="2" r:id="rId2"/>
-    <sheet name="健康环境" sheetId="3" r:id="rId3"/>
-    <sheet name="生活思考" sheetId="4" r:id="rId4"/>
-    <sheet name="学校教育" sheetId="5" r:id="rId5"/>
-    <sheet name="科学技术" sheetId="6" r:id="rId6"/>
+    <sheet name="总表" sheetId="9" r:id="rId1"/>
+    <sheet name="1-文化休闲" sheetId="1" r:id="rId2"/>
+    <sheet name="2-家庭社会" sheetId="2" r:id="rId3"/>
+    <sheet name="3-健康环境" sheetId="3" r:id="rId4"/>
+    <sheet name="4-生活思考" sheetId="4" r:id="rId5"/>
+    <sheet name="5-学校教育" sheetId="5" r:id="rId6"/>
+    <sheet name="6-科学技术" sheetId="6" r:id="rId7"/>
+    <sheet name="7-经济商业" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'7-经济商业'!$A$1:$F$14</definedName>
+  </definedNames>
   <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
   <si>
     <t>SOURCE</t>
   </si>
@@ -364,9 +369,6 @@
     <t>20120310ML</t>
   </si>
   <si>
-    <t>20120318ML</t>
-  </si>
-  <si>
     <t>Do you think it's a good idea for students to evaluate their professor by the end of the semester?</t>
   </si>
   <si>
@@ -403,9 +405,6 @@
     <t>Do you agree or disagree with the statement that people should dress themselves following fashion trends.</t>
   </si>
   <si>
-    <t>20120525NA</t>
-  </si>
-  <si>
     <t>What can we do to reduce air pollution? Explain your answer in details.</t>
   </si>
   <si>
@@ -484,18 +483,12 @@
     <t>20120902ML</t>
   </si>
   <si>
-    <t>20120916ML</t>
-  </si>
-  <si>
     <t>Do you agree or disagree with the statement that watching sports program on TV is not a good use of time.</t>
   </si>
   <si>
     <t>20120922ML</t>
   </si>
   <si>
-    <t>20121019ML</t>
-  </si>
-  <si>
     <t>Do you agree or disagree with the statement that students should begin learning how to use computers in primary school.</t>
   </si>
   <si>
@@ -617,277 +610,13 @@
   </si>
   <si>
     <t>20131122NA</t>
-  </si>
-  <si>
-    <t>20131123ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high-tech products </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>robots</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile phone-----with them at all time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cellphone----------important</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>internet------------big role in life</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>internet------------benefits</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Do you agree or disagree with the statement that internet plays a big role in our life.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>technology</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不熟悉这里的的路。
-拿出我的手机查看电子地图。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Some people like to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> their cell or mobile phone with them at all times.
-Other people prefer not to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>bring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> their cell or mobile phone with them everywhere they go, or they choose not to own one at all. Which do you prefer? Explain why.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I do not too familiar with the roads here.
-I took out my phone to look up the ...
-It also helps me handle more efficiently my </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>daily affairs of life</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, as well </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>difficult situations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>emergencies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you agree or disagree with the statement that cellphones are important for running a successful business.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Well, personally there are a lot of benefits the internet brings to my life.
-First, the Internet  facilitates my study. For example, when I have a hard lesson. I can use the Internet to search for useful information in a very short time.  And these information always could help me to understand(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>realise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) the lesson better. This is really an efficient way to study lessons.
-And also, I can surf the Internet to get fun. For example, after a day of hard study I often search some online games through the Internet.  Everytime play these online games, I really feel relax and enjoyable . Besides I can search for some pop music and movies through the Internet. It could release my pressure of tough study. 
-So the Internet brings a lot benefits to my lives.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>accurately and effectively retrieve information from the mass of information</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Well, personally I agree that the internet plays a big role in our life.
-Firstly because surfing the internet to get fun is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>indispensable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> activities in our daily lives.For example, I often paly online games after a day of tough study. It makes me feel relax and it is really a good way to release pressure.
-Secondly because the internet provides the efficent way to gain knowledge. Before the internet, we gain knowledge just from books and it is really a limited way. Nowdays we can use the power  search engine to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  retrieve information from the mass of information accurately and effectively</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-And the search engine is based on the internet.
-So in my opinion, the internet is really a big role in our life.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Personally, I prefer to bring my mobile phone with me at all times.
-Firstly becuase mobile phone provides convenience to me and it makes life easy.
-For example, once I traveled to a new place. I do not too familiar with roads there. Since I have my mobile phone with me at all times, I could take my phone at once and look up the electronic map. In that travel I never got lost and had a good time.
-Secondly because, as an adult in modern life , I should keep in touch with my close friends and  relatives.For example,if my parent had an emergency, like illness, thay can make a phone call to my. And I would know their problem in the first time. So I can give a help timely.
-So in my opinion, it is better to bring my mobile phone with me at all times.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Talk about the benefits the internet brings to your life. Give your details and examples in your answer.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some people prefer to buy high-tech products as soon as they are introduced to the market, other prefer to wait for some time to get them. Which do you prefer?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>new products
-release
-Hunger sales????
-Apple Company
-？？？
-Agency
-the heat  passed
-flaw/shortcomings
-developers
-repair and upgrade
-list  launch
-thin and light 
-After generations of development
-preformance
-user experience</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -909,65 +638,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Some people think that robots will be very helpful for us in the future, others think robots will never be as smart as human. Which do you agree with?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A（A-）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A和B？？？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、机器人可以做一些重复性体力劳动，让人类从体力劳动中解放出来，去做更有创造性的工作。
-2、节约生产成本，促进商业发展。
----------------------------------------------------------------
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、新上市的产品贵。
-     新上市的高科技产品总是很贵。例如在苹果每次发布新产品总是会进行饥饿销售。一般人很难通过普通渠道买到它。如果想买就必须通过中间商高价购买。往往等新商品上市的热度过去之后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人们不那么追捧它了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，它的价钱就会变得更加合理和便宜。
-2、新上市的产品技术不成熟。
-刚上市的高科技产品没有经过市场检验会有很多瑕疵。如果等待一段时间，开发商往往会根据用户反馈在技术上对商品进行修复和升级。这个时候去买往往能获得更好的使用体验。例如第一代苹果手机上市的时候就有很多问题，类似不够轻薄，运行速度不够快。但是经过了几代的发展，如今的苹果手机在性能上取得了巨大的飞跃。使用最新版的苹果手机，会获得更好的用户体验。
----------------------------------------------------------------
-I prefer to wait for some time to bug high-tech products after they are introduced to the market.
-Firstly because new products are always very expensive. For example, Apple Company like to use hunger sales stratage every time it releases new products. It is vary hard to bug the new products just in an apple store. If someone want to buy it, he/she should to find an agency to buy it in a more expensive price. But after the heat passed, its price could become reasonable and cheaper.
-Secondly because the new high-tech products often have some flaw. If we wait for some time,  
-developers would repair and upgrade the new high-tech product. For example, when the first generation of iPhone launch, it had many shortcomings ，like is it not thin and light enough, its cpu is not fast enough. But after generations of development, today iPhone has made big progress in preformance. If you use the latest generation of iPhone you would have a better user experience.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you agree or disagree with the following statement, technology has made people's life a lot easier than before? Give specific reasons and details in your answer.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>突发问题
 患急性病
 很可能因为
@@ -980,6 +650,82 @@
   </si>
   <si>
     <r>
+      <t>1、新上市的产品贵。
+     新上市的高科技产品总是很贵。例如在苹果每次发布新产品总是会进行饥饿销售。一般人很难通过普通渠道买到它。如果想买就必须通过中间商高价购买。往往等新商品上市的热度过去之后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人们不那么追捧它了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，它的价钱就会变得更加合理和便宜。
+2、新上市的产品技术不成熟。
+刚上市的高科技产品没有经过市场检验会有很多瑕疵。如果等待一段时间，开发商往往会根据用户反馈在技术上对商品进行修复和升级。这个时候去买往往能获得更好的使用体验。例如第一代苹果手机上市的时候就有很多问题，类似不够轻薄，运行速度不够快。但是经过了几代的发展，如今的苹果手机在性能上取得了巨大的飞跃。使用最新版的苹果手机，会获得更好的用户体验。
+---------------------------------------------------------------
+I prefer to wait for some time to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> high-tech products after they are introduced to the market.
+Firstly because new products are always very expensive. For example, Apple Company </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>like to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> use hunger sales stratage every time it releases new products. It is vary hard to bug the new products just in an apple store. If someone want to buy it, he/she should to find an agency to buy it in a more expensive price. But after the heat passed, its price could become reasonable and cheaper.
+Secondly because the new high-tech products often have some flaw. If we wait for some time,  
+developers would repair and upgrade the new high-tech product. For example, when the first generation of iPhone launch, it had many shortcomings ，like is it not thin and light enough, its cpu is not fast enough. But after generations of development, today iPhone has made big progress in preformance. If you use the latest generation of iPhone you would have a better user experience.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1、机器人可以做一些重复性体力劳动，让人类从体力劳动中解放出来，去做更有创造性的工作。
+2、节约生产成本，促进商业发展。
+---------------------------------------------------------------
+</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">emergencies/unexpected problems
 suffer </t>
     </r>
@@ -988,6 +734,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>acute</t>
@@ -1009,6 +756,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>optional</t>
@@ -1028,6 +776,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>irreversible</t>
@@ -1044,10 +793,148 @@
 could only depend on the
 sth. wasn't for sale everywhere</t>
     </r>
+  </si>
+  <si>
+    <t>Some people think that robots will be very helpful for us in the future, others think robots will never be as smart as human. Which do you agree with?</t>
+  </si>
+  <si>
+    <t>Admittedly, robots are used in lots of aspects in modern life, like robots have replaced lots of manual labor in factories, and they can also be used to execute hazardous tasks, however, I think they will never be as smart as humans.Scientist can write programs so that they can be very intelligent, they can win a chess game over a very intelligent person, but they will never tell whethersomeone is happy or depressed, and will not act accordingly. The robots themselves will not be able to display their emotions. Emotional quotient matters a lot when we are judging whether someone is smart or not. Thus, robotswill be as smart as human.</t>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the following statement, technology has made people's life a lot easier than before? Give specific reasons and details in your answer.</t>
+  </si>
+  <si>
+    <t>Some people prefer to buy high-tech products as soon as they are introduced to the market, other prefer to wait for some time to get them. Which do you prefer?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some people like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> their cell or mobile phone with them at all times.
+Other people prefer not to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> their cell or mobile phone with them everywhere they go, or they choose not to own one at all. Which do you prefer? Explain why.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the statement that cellphones are important for running a successful business.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">new products
+release
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hunger marketing
+commercial exploitation  商业炒作
+smear campaign 恶意营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Apple Company
+？？？
+Agency
+the heat  passed
+flaw/shortcomings
+developers
+repair and upgrade
+list  launch
+thin and light 
+After generations of development
+preformance
+user experience</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, personally, the internet brings a lot of benefits to my life.
+First, the Internet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> facilitates my study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. For example, when I meet a hard concept or stuck by a complicated math problem . I can use the Internet to search for the interpretation for that concept and get the solution for that problem in a very short time, you know, a huge number of tutorial videos can be found in Youtube. In that case, I am able to learn new things effectively and efficiently.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+And also, I can surf the Internet to have fun. For example, after a day of hard work,  I often play online games, like Defense of the Ancient, and legends of leagues.  Besides I can access an enormous number of pop music and movies through the Internet. With the games and entertainments like music, I really feel relaxed and enjoyable. It is really a good way to release my pressure.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> technology has made people's life a lot easier than before
+    <r>
+      <t xml:space="preserve"> technology has made people's life a lot easier than before
 1、手机使人们保持联系，解决紧急突发问题。
      例如,如果当人突发急性疾病，他们能通过电话第一时间拨打医院的紧急救助电话，可以给到一个及时的治疗。在过去很能因为无法及时赶到医院而错过最佳治疗时间，造成不可预期的损失。
 2、电子地图帮助人们在外地不会走丢。
@@ -1055,17 +942,2070 @@
 ---------------------------------------------------------------
 I agree that technology has made people's life a lot easier than before.
 Technology such as mobile phone , electronic map and so no bring a lot of benefit to people's life.
-Like mobile phone, it enable people stay in touch with others, when people get emergencies they can get a timely help. For example, if someone suffer acute disease when he or she is alone, he or she could make a phone call to hospital to ask help. And then he or she could get a treatment in time.  However, in the past days, it is probably that for people could not get to hospital in time  and misses the most optional treatment time and got irreverible loss.
-Another example is the technology of electronic map. If people traveled to a new place, and they do not familier with roads there. They could use the map app to navigate. So they would never get lost and have a good time. However, in the past ,people could only depend on a paper map. Since it is not for sale everywhere, it is not convenient enough.
+Like mobile phone, it enable people stay in touch with others, when people get emergencies they can get a timely help. For example, if someone suffer acute disease when he or she is alone, he or she could make a phone call to hospital to ask help. And then he or she could get a treatment in time.  However,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the past </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, it is very likely that people are unable to get to the hospital in time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (it is probably that for people could not get to hospital in time??) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and miss the most optional treatment time and got irreverible loss.
+Another example is the electronic map is a great tool for navigation. If people traveled to a new place, and they are not familier with roads there. They could get assistance from the electronic map. So they would never get lost and have a good time. However, in the past ,people could only depend on a paper map. Since it is not for sale everywhere, it is not convenient enough.
 </t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>26
+Task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140427NA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20120318ML
+Task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20120525NA
+Task1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20120916ML
+Task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20121019ML
+Task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131123ML
+Task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准答案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习答案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written Language - Spoken Language
+General - Major Detail - Minor Detail
+&lt; Complicated &amp; Long &gt; alternate with &lt; Simple &amp; Short &gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.Describe something you own which has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> improved your life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+The things that I'd like to talk about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>would be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF660066"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> produced by Apple. You know, iPhone, iPad and MacBook.
+I use iPhone from iPhone 4s to iPhoneX, it's like five years at least, but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF660066"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> iPad and MacBook were bought not for a very long time. And I used them </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>virtually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> every day. 
+I think you know exactly what it looks like, you know, big screen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> color. 
+And the MacBook </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the Touch Bar —</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a Multi-Touch </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of glass </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>built into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the keyboard for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>instant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> I want, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when I want them. 
+The reason why I mention these three devices together is that they are closely connected. You know, I can send photos and any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from one device to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>another</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, sometimes another two by airdrop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>within</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> five seconds. Super quick. So they help me work more </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF660066"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>efficiently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, save a lot of time. 
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+outline
+canvas
+draw
+reference</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Describe an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">electronic device </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">you use often.
+The electronic device I'd like to talk about is my iPad Pro. And I bought it two years ago in Hong Kong because of the enhanced features and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. 
+After I bought, I used almost every day, for example, I  used keynote to make my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, X-mind to draw an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>outline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and make the whole thing organized. 
+One of the most helpful app would be “Explain Everything” , it is like a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>canvas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, which could be wrote and drew with an apple pen and could be typed in different size of words as well. I love it so much because I could use it as a whiteboard to explain things to students, and after the class, the notes on it could be saved in PDF form and sent to students as a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. It is so convenient and useful.
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, personally I agree that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> internet plays a big role in our life.
+Firstly because surfing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> internet to have fun is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>indispensable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> activities in our daily </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.For example, I often play online games after a day of tough </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. It makes me feel relax and it is really a good way to release pressure.
+Secondly because the internet provides the efficent way to gain knowledge. Before the internet, we gain knowledge just from books and it is really a limited </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Nowdays we could </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the powerful  search engine to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">retrieve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>information from the mass of information accurately and effectively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+And the search engine is based on the technology internet.
+So in my opinion, the internet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> plays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> really a big role in our life.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"feel relaxed and get my mind refreshed
+the information is inaccessible without internet."
+accurately and effectively retrieve information from the mass of information
+idea      
+famous   抹 
+way 诶    we   衣
+say          see
+ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>retrieve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v./n.检索；恢复；重新得到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">virtually
+plain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>instant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+efficiently
+the Touch Bar
+Multi-Touch enabled 
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad.事实上
+n.平原  a.简单的；朴素的
+n.带；条状
+n.瞬间   a.立即的
+n.苹果的touch bar(触控条)
+a.多点触碰的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.幻灯片
+n.轮廓；大纲
+n./v./a. 帆布
+v.拖,拉；画；吸引
+n.参考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Personally speaking, I prefer bringing my cellphone with me all the time.
+First because it makes my life easier because of its convenience. 
+For example,when I travel to a new place, which I'm not familiar with, the phone can be used to navigate so that I don't have to buy a map or ask the locals frequently.
+Second, it is necessary to keep in touch with my close friend and relatives. Once they have an emergency, I could become </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aware of that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by their phone call. This way, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>show up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and take care of them </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>immediately</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.   
+So in my opinion, it is better to bring my mobile phone with me at all times.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ingredient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slide
+pin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pinterest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stroke
+a stroke of
+weird</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+secretary
+---------
+be aware of
+show up
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.原料；要素；组成部分
+n.幻灯片；滑动
+n.大头针   v.钉住，别住
+n.品趣志
+v./n.击打   n.中风
+一种...；一个...
+n.命运；预言  a.不可思议的；怪异的
+意识到
+v.露面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I completely agree that cellphone are important for running a successful business.
+First because it is necessary for business owners to keep in close contact with their partners, suppliers and customers. For example, if I sell computers and one of my customers want to buy a latest version of the computer, then it's better to get in touch with the supplier immediately to see the specific time and accessibility of that version of computers. 
+The second reason is that to succeed in running a business, one needs to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stay tuned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on the</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> technology </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>administration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> development in the that field. With a cellphone, news of the new policies, actions of the competitors, and the research progress are all accessible, which is quite helpful for a business owner to make a smart decision. </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Personally speaking, I prefer bringing my cellphone with me all the time.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">First because the cellphone is extremely helpful for my work. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>all sorts of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ingredients</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slides</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+for example, fantastic pictures from "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pinterest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">", news from "the economist" and even cool templates. And sometimes, the moments I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>camera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on the cellphone can be</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stroke</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of genius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+The second reason is that I'm able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">get answers from the cellphone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>and also provide answers to my students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. 
+You know, google and siri both serve as informative </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>secretaries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Imagine you see a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>weird</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> plant or a historical building, you could just take a picture and get all the information from google or siri by your cellphone within five seconds. Also, questions from students come to me by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Wechat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> can be responded in time if I take the cellphone with me the whole day.
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130420ML</t>
+  </si>
+  <si>
+    <t>What suggestions would you give a friend who is starting a new job. Give examples and details in your response.</t>
+  </si>
+  <si>
+    <t>20130908France</t>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the statement that in order to run a successful business, a person needs to be friendly and outgoing?</t>
+  </si>
+  <si>
+    <t>20131206NA</t>
+  </si>
+  <si>
+    <t>Which of the following jobs would you like to do? Actor / actress, computer programmer or business owner. Explain yourself in details.</t>
+  </si>
+  <si>
+    <t>20141206ML</t>
+  </si>
+  <si>
+    <t>Some people prefer to dress formally in work place, others like to dress casually in work place. Which do you prefer?</t>
+  </si>
+  <si>
+    <t>20150125ML</t>
+  </si>
+  <si>
+    <t>Some people prefer take a job with a single task, others prefer to do multiple tasks on a job. Which do you prefer?</t>
+  </si>
+  <si>
+    <t>20150307ML</t>
+  </si>
+  <si>
+    <t>If your friend is going to an important interview, what suggestions would you give him?</t>
+  </si>
+  <si>
+    <t>20140531NA</t>
+  </si>
+  <si>
+    <t>Some countries now take measures to attract a large amount of foreign tourists to their tourism sites. Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
+  </si>
+  <si>
+    <t>20140810NA</t>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the statement that protecting the environment is as important as economic development.</t>
+  </si>
+  <si>
+    <t>20141004NA</t>
+  </si>
+  <si>
+    <t>Your friend plans to go to your country to study but has concern about expenditure, what is your advice for your friend?</t>
+  </si>
+  <si>
+    <t>20141108ML</t>
+  </si>
+  <si>
+    <t>Your city is planning to spend more budget on one of the following three projects, which do you think is the most important. Expending tourism, building city parks, improving the public transportation system.</t>
+  </si>
+  <si>
+    <t>20141129ML</t>
+  </si>
+  <si>
+    <t>20150328ML</t>
+  </si>
+  <si>
+    <t>If you were making a donation, which of the follow organizations would you be making your donation to? Environmental protection group, city library, or animal shelter?</t>
+  </si>
+  <si>
+    <t>20140505NA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习答案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准答案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生词总结</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suggestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> would you give a friend who is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> starting a new job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Give examples and details in your response.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Which of the following</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jobs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> would you like to do? Actor / actress, computer programmer or business owner. Explain yourself in details.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some people prefer take a job with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>single task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, others prefer to do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">multiple tasks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on a job. Which do you prefer?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some countries now take measures to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>attract a large amount of foreign tourists to their tourism sites.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you agree or disagree with the statement that protecting the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is as important as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> economic development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your city is planning to spend more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">budget </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on one of the following three projects, which do you think is the most important. 
+Expending tourism, building city parks, improving the public transportation system.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you agree or disagree with the statement that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>governments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> should spend money on encouraging citizens to live</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> healthier life style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you were making a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>donation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, which of the follow organizations would you be making your donation to? 
+Environmental protection group, city library, or animal shelter?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you agree or disagree with the statement that in order to run a successful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>business</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, a person needs to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>friendly and outgoing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Some people prefer to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dress formally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in work place, others like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dress casually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in work place. Which do you prefer?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you think the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>government</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> should spend money on saving endangered animals or should private sector take on such responsibility?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If your friend is going to an important </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, what suggestions would you give him?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your friend plans to go to your country to study but has concern about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expenditure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, what is your advice for your friend?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,6 +3033,7 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1100,6 +3041,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1107,9 +3049,83 @@
       <sz val="12"/>
       <color theme="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -1117,23 +3133,82 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="5" tint="0.59999389629810485"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF660066"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF660066"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color rgb="FF800000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,18 +3217,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1161,8 +3254,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="645">
+  <cellStyleXfs count="1956">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1808,8 +3932,1319 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1821,25 +5256,65 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1471"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1471" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1471" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="645">
+  <cellStyles count="1956">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2162,6 +5637,661 @@
     <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1954" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2484,23 +6614,680 @@
     <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1955" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="普通 2" xfId="1471"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="68">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2511,10 +7298,241 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3366FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2622,80 +7640,79 @@
   <tableColumns count="3">
     <tableColumn id="1" name="SOURCE"/>
     <tableColumn id="2" name="TASK 1/2"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="36"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A1:E21" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A1:E21" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="33"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="32"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="31"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="30"/>
-    <tableColumn id="5" name="Column2" dataDxfId="29"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="64"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="63"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="62"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="61"/>
+    <tableColumn id="5" name="Column2" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1367" displayName="Table1367" ref="A1:E21" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1367" displayName="Table1367" ref="A1:E21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="26"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="25"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="24"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="23"/>
-    <tableColumn id="5" name="Column2" dataDxfId="22"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="57"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="56"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="55"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="54"/>
+    <tableColumn id="5" name="Column2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1368" displayName="Table1368" ref="A1:E22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1368" displayName="Table1368" ref="A1:E22" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:E22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="19"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="18"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="17"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="16"/>
-    <tableColumn id="5" name="Column2" dataDxfId="15"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="50"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="49"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="48"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="47"/>
+    <tableColumn id="5" name="Column2" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E29" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E29" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="12"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="11"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="10"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="9"/>
-    <tableColumn id="5" name="Column2" dataDxfId="8"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="43"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="42"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="41"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="40"/>
+    <tableColumn id="5" name="Column2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="B1:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="普通">
-  <autoFilter ref="B1:F8"/>
-  <sortState ref="B2:F21">
-    <sortCondition sortBy="cellColor" ref="E1:E21" dxfId="5"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="4" dataCellStyle="普通"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="3" dataCellStyle="普通"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="2" dataCellStyle="普通"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="1" dataCellStyle="普通"/>
-    <tableColumn id="5" name="Column2" dataDxfId="0" dataCellStyle="普通"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="B1:H8" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="B1:H8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SOURCE" dataDxfId="36"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="35"/>
+    <tableColumn id="5" name="练习答案" dataDxfId="34"/>
+    <tableColumn id="6" name="标准答案" dataDxfId="33"/>
+    <tableColumn id="7" name="Column4" dataDxfId="32"/>
+    <tableColumn id="8" name="Column5" dataDxfId="31"/>
+    <tableColumn id="9" name="Column6" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2990,7 +8007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2998,11 +8015,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="34">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34">
+      <c r="B3" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34">
+      <c r="B4" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34">
+      <c r="B5" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="B6" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34">
+      <c r="B7" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34">
+      <c r="B8" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="68">
+      <c r="B9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34">
+      <c r="B10" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34">
+      <c r="B11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51">
+      <c r="B12" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34">
+      <c r="B13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51">
+      <c r="B14" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3156,123 +8347,123 @@
     </row>
     <row r="14" spans="1:3" ht="34">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="68">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="51">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51">
@@ -3283,23 +8474,24 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3311,7 +8503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E21"/>
@@ -3466,52 +8658,52 @@
     </row>
     <row r="11" spans="1:5" ht="34">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="34">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3572,7 +8764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E21"/>
@@ -3687,156 +8879,156 @@
     </row>
     <row r="8" spans="1:5" ht="51">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="34">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="34">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="51">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="34">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="51">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="51">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="34">
       <c r="A16" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="51">
       <c r="A17" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="85">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="34">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3854,326 +9046,6 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="51">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="51">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="51">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="51">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="34">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="51">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="51">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="51">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="51">
-      <c r="A10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="34">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="34">
-      <c r="A12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="34">
-      <c r="A13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="51">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="34">
-      <c r="A15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="34">
-      <c r="A16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="34">
-      <c r="A17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="34">
-      <c r="A18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="34">
-      <c r="A19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="34">
-      <c r="A20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="34">
-      <c r="A21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="34">
-      <c r="A22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4191,17 +9063,337 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E29"/>
+  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="51">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="51">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="51">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="34">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="51">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="51">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="51">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="51">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="34">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="34">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="34">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="51">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="34">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="34">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="34">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="34">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="34">
+      <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="34">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="34">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="34">
+      <c r="A22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="67.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.7109375" style="1"/>
@@ -4460,79 +9652,79 @@
     </row>
     <row r="23" spans="1:3" ht="34">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4550,252 +9742,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6" style="8" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="8"/>
+    <col min="1" max="1" width="2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23" customHeight="1">
+    <row r="1" spans="1:8">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="306">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="272">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="221">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="221">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="409">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="170">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="409">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="34">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="51">
+      <c r="E10" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    <row r="12" spans="1:8" ht="340">
+      <c r="E12" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="34">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="153">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="170">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="170">
-      <c r="A13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="391">
-      <c r="A14" s="8">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="272">
+      <c r="E13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="68">
-      <c r="A15" s="8">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="391">
-      <c r="A16" s="8">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>224</v>
+      <c r="G13" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4811,4 +9977,228 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="28.5703125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
+      <c r="A2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="51">
+      <c r="A3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="68">
+      <c r="A4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="51">
+      <c r="A5" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="68">
+      <c r="A6" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="119">
+      <c r="A7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="68">
+      <c r="A8" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="119">
+      <c r="A9" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="68">
+      <c r="A10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="68">
+      <c r="A11" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="68">
+      <c r="A13" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="85">
+      <c r="A14" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F14">
+    <sortState ref="A2:F14">
+      <sortCondition sortBy="cellColor" ref="C1:C14" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
+++ b/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22905"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="0" windowWidth="20820" windowHeight="15580" tabRatio="619" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="619" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="286">
   <si>
     <t>SOURCE</t>
   </si>
@@ -613,11 +613,11 @@
   </si>
   <si>
     <t>Do you agree or disagree with the statement that internet plays a big role in our life.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Talk about the benefits the internet brings to your life. Give your details and examples in your answer.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新上市的产品
@@ -635,7 +635,7 @@
 经过几代的发展
 性能
 用户体验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>突发问题
@@ -646,7 +646,7 @@
 纸质地图
 只能依靠
 sth.随处能买到</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -930,7 +930,7 @@
       <t xml:space="preserve">
 And also, I can surf the Internet to have fun. For example, after a day of hard work,  I often play online games, like Defense of the Ancient, and legends of leagues.  Besides I can access an enormous number of pop music and movies through the Internet. With the games and entertainments like music, I really feel relaxed and enjoyable. It is really a good way to release my pressure.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -984,7 +984,7 @@
 Another example is the electronic map is a great tool for navigation. If people traveled to a new place, and they are not familier with roads there. They could get assistance from the electronic map. So they would never get lost and have a good time. However, in the past ,people could only depend on a paper map. Since it is not for sale everywhere, it is not convenient enough.
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Column4</t>
@@ -998,50 +998,50 @@
   <si>
     <t>26
 Task2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20140427NA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20120318ML
 Task2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20120525NA
 Task1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20120916ML
 Task2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20121019ML
 Task2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20131123ML
 Task2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>标准答案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>练习答案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Written Language - Spoken Language
 General - Major Detail - Minor Detail
 &lt; Complicated &amp; Long &gt; alternate with &lt; Simple &amp; Short &gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1426,7 +1426,7 @@
       <t xml:space="preserve">, save a lot of time. 
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1452,7 +1452,7 @@
 draw
 reference</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1580,7 +1580,7 @@
       <t xml:space="preserve">. It is so convenient and useful.
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1790,7 +1790,7 @@
       </rPr>
       <t xml:space="preserve"> really a big role in our life.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">"feel relaxed and get my mind refreshed
@@ -1801,15 +1801,15 @@
 way 诶    we   衣
 say          see
  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>retrieve</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>v./n.检索；恢复；重新得到</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1860,7 +1860,7 @@
 Multi-Touch enabled 
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ad.事实上
@@ -1869,7 +1869,7 @@
 n.瞬间   a.立即的
 n.苹果的touch bar(触控条)
 a.多点触碰的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>n.幻灯片
@@ -1877,7 +1877,7 @@
 n./v./a. 帆布
 v.拖,拉；画；吸引
 n.参考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1942,97 +1942,7 @@
       <t>.   
 So in my opinion, it is better to bring my mobile phone with me at all times.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ingredient</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>slide
-pin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pinterest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>stroke
-a stroke of
-weird</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-secretary
----------
-be aware of
-show up
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>n.原料；要素；组成部分
@@ -2044,7 +1954,7 @@
 n.命运；预言  a.不可思议的；怪异的
 意识到
 v.露面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2115,7 +2025,7 @@
       </rPr>
       <t xml:space="preserve"> development in the that field. With a cellphone, news of the new policies, actions of the competitors, and the research progress are all accessible, which is quite helpful for a business owner to make a smart decision. </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2458,7 +2368,7 @@
       <t xml:space="preserve"> can be responded in time if I take the cellphone with me the whole day.
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20130420ML</t>
@@ -2531,27 +2441,117 @@
   </si>
   <si>
     <t>20140505NA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习答案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准答案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生词总结</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ingredient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slide
+pin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pinterest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stroke
+a stroke of
+weird</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+secretary
+---------
+be aware of
+show up
+</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Topic7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>练习答案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准答案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生词总结</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">What </t>
+    <r>
+      <t xml:space="preserve">Some people prefer take a job with a </t>
     </r>
     <r>
       <rPr>
@@ -2561,6 +2561,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>single task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, others prefer to do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">multiple tasks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on a job. Which do you prefer?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">面试--
+If your friend is going to an important </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 
+what suggestions would you give him?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">入职---
+What </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>suggestions</t>
     </r>
     <r>
@@ -2591,13 +2665,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>. Give examples and details in your response.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Which of the following</t>
+      <t>. 
+Give examples and details in your response.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择工作--
+Which of the following</t>
     </r>
     <r>
       <rPr>
@@ -2617,13 +2693,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> would you like to do? Actor / actress, computer programmer or business owner. Explain yourself in details.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Some people prefer take a job with a </t>
+      <t xml:space="preserve"> would you like to do? 
+Actor / actress, computer programmer or business owner.
+Explain yourself in details.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your friend plans to go to your country to study but has concern about </t>
     </r>
     <r>
       <rPr>
@@ -2633,7 +2711,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>single task</t>
+      <t>expenditure</t>
     </r>
     <r>
       <rPr>
@@ -2643,7 +2721,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">, others prefer to do </t>
+      <t>, what is your advice for your friend?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：旅游、公园、交通
+Your city is planning to spend more budget on one of the following three projects, which do you think is the most important. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Expending tourism, 
+building city parks,
+improving the public transportation system.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：健康生活
+Do you agree or disagree with the statement that </t>
     </r>
     <r>
       <rPr>
@@ -2653,7 +2757,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">multiple tasks </t>
+      <t>governments</t>
     </r>
     <r>
       <rPr>
@@ -2663,38 +2767,34 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>on a job. Which do you prefer?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Some countries now take measures to </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> should spend money on encouraging citizens to live</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>attract a large amount of foreign tourists to their tourism sites.</t>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> healthier life style</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Do you agree or disagree with the statement that protecting the </t>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：旅游
+Some countries now take measures to </t>
     </r>
     <r>
       <rPr>
@@ -2704,6 +2804,185 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>attract a large amount of foreign tourists to their</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tourism sites.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：保护动物
+Do you think the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>government</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> should spend money on</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> saving endangered animals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or should private sector take on such responsibility?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a successful business---
+Do you agree or disagree with the statement that in order to run a successful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>business</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, a person needs to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>friendly and outgoing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>着装---
+Some people prefer to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dress formally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in work place, others like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dress casually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in work place. Which do you prefer?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">保护环境
+Do you agree or disagree with the statement that protecting the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>environment</t>
     </r>
     <r>
@@ -2736,11 +3015,12 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Your city is planning to spend more </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">捐赠
+If you were making a </t>
     </r>
     <r>
       <rPr>
@@ -2750,7 +3030,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">budget </t>
+      <t>donation</t>
     </r>
     <r>
       <rPr>
@@ -2758,86 +3038,36 @@
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>on one of the following three projects, which do you think is the most important. 
-Expending tourism, building city parks, improving the public transportation system.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Do you agree or disagree with the statement that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>governments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> should spend money on encouraging citizens to live</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> healthier life style</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you were making a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>donation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>, which of the follow organizations would you be making your donation to? 
 Environmental protection group, city library, or animal shelter?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Do you agree or disagree with the statement that in order to run a successful </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.我会建议我的朋友回顾以往的工作经历，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总结自己在专业上的优势。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+对企业来说，一个员工最重要的</t>
     </r>
     <r>
       <rPr>
@@ -2847,7 +3077,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>business</t>
+      <t>素质</t>
     </r>
     <r>
       <rPr>
@@ -2856,7 +3086,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">, a person needs to be </t>
+      <t>是具备专业的技能，有能力做好这份工作。我会鼓励我的朋友</t>
     </r>
     <r>
       <rPr>
@@ -2866,7 +3096,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>friendly and outgoing</t>
+      <t>在简历上</t>
     </r>
     <r>
       <rPr>
@@ -2875,13 +3105,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Some people prefer to</t>
+      <t>体现出来自己</t>
     </r>
     <r>
       <rPr>
@@ -2891,7 +3115,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> dress formally</t>
+      <t>具备</t>
     </r>
     <r>
       <rPr>
@@ -2900,7 +3124,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> in work place, others like to </t>
+      <t>这个岗位需要的技能，同时</t>
     </r>
     <r>
       <rPr>
@@ -2910,7 +3134,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>dress casually</t>
+      <t>在面试现场</t>
     </r>
     <r>
       <rPr>
@@ -2919,13 +3143,28 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> in work place. Which do you prefer?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Do you think the </t>
+      <t>也能重点表达出来这一点。让面试官能短时间内了解到他在专业上的优势。
+2.面试的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持乐观的心态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。乐观的心态能使人放松。人在发送的时候会有更好的临床发挥。
+例如我有一个朋友李雷，他在编程上相当厉害，但是总是羞于表达。这导致他经常</t>
     </r>
     <r>
       <rPr>
@@ -2935,23 +3174,162 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>government</t>
+      <t>在面试现场</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> should spend money on saving endangered animals or should private sector take on such responsibility?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If your friend is going to an important </t>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">不能很放松的把自己掌握的专业知识表达出来，从而错过很多很好的就业机会。
+If my friend is going to an inportant interview, I will give him or her these suggestions.
+First, I will suggest my friend to review him or her work experience and sumrise his or her advantage in his or her professional feild. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>When it comes to a company, the most important ablity of a employee is the profrssional skills which enable his or her could accoplish the job well.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+I will encourage my friend to emhasize this point on his or her resume. And at the same time,express this point when he or she communicates with interviewer. Let interviewer understand his or her strong technical knowledge at a very short time.
+Second, I will suggest my friend to keep optimesstic attitude toward the interview. optimesstic attitude help people relax. When people feel relax he or she could proferm thing well. For example my friends Lilei, he is very good at programing, but he has a negtive attitude to express himself. So he missed a lot of good job offers.
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.主动向他人请教。
+2.主动承担更多的责任。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术能力
+专业技能 
+简历  
+v.着重</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical knowledge
+professional skills
+resume
+emphasizes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.保持兴趣和积极性
+2.灵活
+I prefer to do mutible tasks on a job.
+First because proferming a varity duties could keep workers' interest and energy level high.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A TV documentry reveal that workers' who often get the oppotunitis to have mutiple tasks, in turn, have higher energy level than other companies' counterparts.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In short, mubtiple duties let workers maintain their interest in their jobs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Second, performing different tasks also help reduce burnout and boredem.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>My brother Tom work at a  company provide mutiple tasks on a job. Tom and his colleges often have oppotunites to do differdnt tasks, and this enable them to feel a sense of good about their work enviroment.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievability
+satisfied
+live one's life fully,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.成就感
+a.满足的
+过得充实</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>想不出具体的例子????</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>想不出具体的例子????</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.崇拜乔布斯
+2.擅长
+我比较擅长学习这类知识。写代码给我很多</t>
     </r>
     <r>
       <rPr>
@@ -2961,23 +3339,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>interview</t>
+      <t>成就感</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, what suggestions would you give him?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Your friend plans to go to your country to study but has concern about </t>
+        <charset val="134"/>
+      </rPr>
+      <t>。让我觉得开心和满足。
+大学时候我英语很差，这是我觉得非常沮丧。但是学习编程让我找到了自信。整个大学过得十分</t>
     </r>
     <r>
       <rPr>
@@ -2987,7 +3359,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>expenditure</t>
+      <t>充实</t>
     </r>
     <r>
       <rPr>
@@ -2996,21 +3368,106 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>, what is your advice for your friend?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t xml:space="preserve">。毕业后继续从事这份工作是一件令人开心的事儿。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I prefer to be a computer peogrammer. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+First becasuse Steve Jobs is my role model. I admire him so much because he was leading one of the most famous soft ware company. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>As genus, he made the computer operate systerm more powerful and easier to use. I love my computer more because of the latest mac operate systerm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> So I want to make a countribution to this field.
+Second, I am good at this kind of study. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>When I was in univerisity, my English is so bad, and this made me depressd. But studying program made me find self-confidence. And I lived my life fully in my univerisity time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">If I become a computer programmer after graduation will be a excellent thing to me.
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.线上了解情况。
+2.本地考察。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3207,6 +3664,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3286,2035 +3756,2317 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1956">
+  <cellStyleXfs count="2226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1471"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1471" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1471"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1471" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1471" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="1471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1471" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1471" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1471" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1471" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1471" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1956">
+  <cellStyles count="2226">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -6292,6 +7044,141 @@
     <cellStyle name="超链接" xfId="1950" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1952" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2224" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -7269,240 +8156,149 @@
     <cellStyle name="访问过的超链接" xfId="1951" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1953" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2225" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="普通 2" xfId="1471"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3366FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FFBF8F00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -7640,79 +8436,79 @@
   <tableColumns count="3">
     <tableColumn id="1" name="SOURCE"/>
     <tableColumn id="2" name="TASK 1/2"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="67"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A1:E21" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A1:E21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="64"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="63"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="62"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="61"/>
-    <tableColumn id="5" name="Column2" dataDxfId="60"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="35"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="34"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="33"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="32"/>
+    <tableColumn id="5" name="Column2" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1367" displayName="Table1367" ref="A1:E21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1367" displayName="Table1367" ref="A1:E21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="57"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="56"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="55"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="54"/>
-    <tableColumn id="5" name="Column2" dataDxfId="53"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="28"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="27"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="26"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="25"/>
+    <tableColumn id="5" name="Column2" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1368" displayName="Table1368" ref="A1:E22" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1368" displayName="Table1368" ref="A1:E22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:E22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="50"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="49"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="48"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="47"/>
-    <tableColumn id="5" name="Column2" dataDxfId="46"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="21"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="20"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="19"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="18"/>
+    <tableColumn id="5" name="Column2" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E29" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SOURCE" dataDxfId="43"/>
-    <tableColumn id="2" name="TASK 1/2" dataDxfId="42"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="41"/>
-    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="40"/>
-    <tableColumn id="5" name="Column2" dataDxfId="39"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="14"/>
+    <tableColumn id="2" name="TASK 1/2" dataDxfId="13"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="12"/>
+    <tableColumn id="4" name="CLASSIFICATION" dataDxfId="11"/>
+    <tableColumn id="5" name="Column2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="B1:H8" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="B1:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B1:H8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="SOURCE" dataDxfId="36"/>
-    <tableColumn id="3" name="QUESTION" dataDxfId="35"/>
-    <tableColumn id="5" name="练习答案" dataDxfId="34"/>
-    <tableColumn id="6" name="标准答案" dataDxfId="33"/>
-    <tableColumn id="7" name="Column4" dataDxfId="32"/>
-    <tableColumn id="8" name="Column5" dataDxfId="31"/>
-    <tableColumn id="9" name="Column6" dataDxfId="30"/>
+    <tableColumn id="1" name="SOURCE" dataDxfId="7"/>
+    <tableColumn id="3" name="QUESTION" dataDxfId="6"/>
+    <tableColumn id="5" name="练习答案" dataDxfId="5"/>
+    <tableColumn id="6" name="标准答案" dataDxfId="4"/>
+    <tableColumn id="7" name="Column4" dataDxfId="3"/>
+    <tableColumn id="8" name="Column5" dataDxfId="2"/>
+    <tableColumn id="9" name="Column6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8007,7 +8803,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8031,152 +8827,152 @@
   <sheetData>
     <row r="2" spans="1:4" ht="34">
       <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="17">
+    </row>
+    <row r="4" spans="1:4" ht="34">
+      <c r="B4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34">
+      <c r="B5" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34">
-      <c r="B4" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="D5" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="B6" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34">
-      <c r="B5" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="D6" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34">
+      <c r="B7" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="B6" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="D7" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34">
+      <c r="B8" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="68">
+      <c r="B9" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34">
+      <c r="B10" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34">
-      <c r="B7" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="D10" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34">
+      <c r="B11" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34">
-      <c r="B8" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="D11" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51">
+      <c r="B12" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="68">
-      <c r="B9" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="D12" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34">
+      <c r="B13" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51">
+      <c r="B14" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="B10" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34">
-      <c r="B11" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51">
-      <c r="B12" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34">
-      <c r="B13" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51">
-      <c r="B14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>256</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -8489,7 +9285,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
@@ -8751,7 +9547,7 @@
       <c r="E21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8769,7 +9565,7 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -9048,7 +9844,7 @@
       <c r="E21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9368,7 +10164,7 @@
       <c r="E22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9386,7 +10182,7 @@
   <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -9728,7 +10524,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
@@ -9748,13 +10544,13 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="55.140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="58.28515625" style="10" customWidth="1"/>
@@ -9803,13 +10599,13 @@
         <v>229</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -9825,7 +10621,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -9965,7 +10761,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
@@ -9984,215 +10780,250 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="58.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="11" customWidth="1"/>
     <col min="6" max="16384" width="28.5703125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51">
-      <c r="A2" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="16">
+    </row>
+    <row r="2" spans="1:6" ht="323">
+      <c r="A2" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="51">
-      <c r="A3" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="C2" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="409">
+      <c r="A3" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="68">
-      <c r="A4" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="51">
-      <c r="A5" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="C4" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="323">
+      <c r="A5" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="68">
-      <c r="A6" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="C5" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51">
+      <c r="A6" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="119">
-      <c r="A7" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="68">
-      <c r="A8" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="18">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="119">
-      <c r="A9" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="136">
+      <c r="A9" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="68">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="68">
+      <c r="A11" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" ht="68">
+      <c r="A12" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="68">
+      <c r="A13" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="102">
+      <c r="A14" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="68">
-      <c r="A11" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="51">
-      <c r="A12" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="68">
-      <c r="A13" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="85">
-      <c r="A14" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="C14" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F14">
     <sortState ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="C1:C14" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="C1:C14" dxfId="0"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
+++ b/TOFEL_口语话题_写作匹配_分类题库-Sophia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22905"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="619" activeTab="7"/>
+    <workbookView xWindow="620" yWindow="20" windowWidth="24960" windowHeight="15600" tabRatio="619" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="285">
   <si>
     <t>SOURCE</t>
   </si>
@@ -613,11 +613,11 @@
   </si>
   <si>
     <t>Do you agree or disagree with the statement that internet plays a big role in our life.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Talk about the benefits the internet brings to your life. Give your details and examples in your answer.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新上市的产品
@@ -635,7 +635,7 @@
 经过几代的发展
 性能
 用户体验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>突发问题
@@ -646,7 +646,7 @@
 纸质地图
 只能依靠
 sth.随处能买到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -930,7 +930,7 @@
       <t xml:space="preserve">
 And also, I can surf the Internet to have fun. For example, after a day of hard work,  I often play online games, like Defense of the Ancient, and legends of leagues.  Besides I can access an enormous number of pop music and movies through the Internet. With the games and entertainments like music, I really feel relaxed and enjoyable. It is really a good way to release my pressure.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -984,7 +984,7 @@
 Another example is the electronic map is a great tool for navigation. If people traveled to a new place, and they are not familier with roads there. They could get assistance from the electronic map. So they would never get lost and have a good time. However, in the past ,people could only depend on a paper map. Since it is not for sale everywhere, it is not convenient enough.
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Column4</t>
@@ -998,50 +998,50 @@
   <si>
     <t>26
 Task2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20140427NA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20120318ML
 Task2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20120525NA
 Task1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20120916ML
 Task2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20121019ML
 Task2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20131123ML
 Task2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>标准答案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>练习答案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Written Language - Spoken Language
 General - Major Detail - Minor Detail
 &lt; Complicated &amp; Long &gt; alternate with &lt; Simple &amp; Short &gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1426,7 +1426,7 @@
       <t xml:space="preserve">, save a lot of time. 
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1452,7 +1452,7 @@
 draw
 reference</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1580,7 +1580,7 @@
       <t xml:space="preserve">. It is so convenient and useful.
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1790,7 +1790,7 @@
       </rPr>
       <t xml:space="preserve"> really a big role in our life.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">"feel relaxed and get my mind refreshed
@@ -1801,15 +1801,15 @@
 way 诶    we   衣
 say          see
  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>retrieve</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v./n.检索；恢复；重新得到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1860,7 +1860,7 @@
 Multi-Touch enabled 
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ad.事实上
@@ -1869,7 +1869,7 @@
 n.瞬间   a.立即的
 n.苹果的touch bar(触控条)
 a.多点触碰的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n.幻灯片
@@ -1877,7 +1877,7 @@
 n./v./a. 帆布
 v.拖,拉；画；吸引
 n.参考</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1942,7 +1942,7 @@
       <t>.   
 So in my opinion, it is better to bring my mobile phone with me at all times.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n.原料；要素；组成部分
@@ -1954,7 +1954,7 @@
 n.命运；预言  a.不可思议的；怪异的
 意识到
 v.露面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2025,7 +2025,7 @@
       </rPr>
       <t xml:space="preserve"> development in the that field. With a cellphone, news of the new policies, actions of the competitors, and the research progress are all accessible, which is quite helpful for a business owner to make a smart decision. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2368,96 +2368,96 @@
       <t xml:space="preserve"> can be responded in time if I take the cellphone with me the whole day.
 </t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130420ML</t>
+  </si>
+  <si>
+    <t>What suggestions would you give a friend who is starting a new job. Give examples and details in your response.</t>
+  </si>
+  <si>
+    <t>20130908France</t>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the statement that in order to run a successful business, a person needs to be friendly and outgoing?</t>
+  </si>
+  <si>
+    <t>20131206NA</t>
+  </si>
+  <si>
+    <t>Which of the following jobs would you like to do? Actor / actress, computer programmer or business owner. Explain yourself in details.</t>
+  </si>
+  <si>
+    <t>20141206ML</t>
+  </si>
+  <si>
+    <t>Some people prefer to dress formally in work place, others like to dress casually in work place. Which do you prefer?</t>
+  </si>
+  <si>
+    <t>20150125ML</t>
+  </si>
+  <si>
+    <t>Some people prefer take a job with a single task, others prefer to do multiple tasks on a job. Which do you prefer?</t>
+  </si>
+  <si>
+    <t>20150307ML</t>
+  </si>
+  <si>
+    <t>If your friend is going to an important interview, what suggestions would you give him?</t>
+  </si>
+  <si>
+    <t>20140531NA</t>
+  </si>
+  <si>
+    <t>Some countries now take measures to attract a large amount of foreign tourists to their tourism sites. Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
+  </si>
+  <si>
+    <t>20140810NA</t>
+  </si>
+  <si>
+    <t>Do you agree or disagree with the statement that protecting the environment is as important as economic development.</t>
+  </si>
+  <si>
+    <t>20141004NA</t>
+  </si>
+  <si>
+    <t>Your friend plans to go to your country to study but has concern about expenditure, what is your advice for your friend?</t>
+  </si>
+  <si>
+    <t>20141108ML</t>
+  </si>
+  <si>
+    <t>Your city is planning to spend more budget on one of the following three projects, which do you think is the most important. Expending tourism, building city parks, improving the public transportation system.</t>
+  </si>
+  <si>
+    <t>20141129ML</t>
+  </si>
+  <si>
+    <t>20150328ML</t>
+  </si>
+  <si>
+    <t>If you were making a donation, which of the follow organizations would you be making your donation to? Environmental protection group, city library, or animal shelter?</t>
+  </si>
+  <si>
+    <t>20140505NA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20130420ML</t>
-  </si>
-  <si>
-    <t>What suggestions would you give a friend who is starting a new job. Give examples and details in your response.</t>
-  </si>
-  <si>
-    <t>20130908France</t>
-  </si>
-  <si>
-    <t>Do you agree or disagree with the statement that in order to run a successful business, a person needs to be friendly and outgoing?</t>
-  </si>
-  <si>
-    <t>20131206NA</t>
-  </si>
-  <si>
-    <t>Which of the following jobs would you like to do? Actor / actress, computer programmer or business owner. Explain yourself in details.</t>
-  </si>
-  <si>
-    <t>20141206ML</t>
-  </si>
-  <si>
-    <t>Some people prefer to dress formally in work place, others like to dress casually in work place. Which do you prefer?</t>
-  </si>
-  <si>
-    <t>20150125ML</t>
-  </si>
-  <si>
-    <t>Some people prefer take a job with a single task, others prefer to do multiple tasks on a job. Which do you prefer?</t>
-  </si>
-  <si>
-    <t>20150307ML</t>
-  </si>
-  <si>
-    <t>If your friend is going to an important interview, what suggestions would you give him?</t>
-  </si>
-  <si>
-    <t>20140531NA</t>
-  </si>
-  <si>
-    <t>Some countries now take measures to attract a large amount of foreign tourists to their tourism sites. Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
-  </si>
-  <si>
-    <t>20140810NA</t>
-  </si>
-  <si>
-    <t>Do you agree or disagree with the statement that protecting the environment is as important as economic development.</t>
-  </si>
-  <si>
-    <t>20141004NA</t>
-  </si>
-  <si>
-    <t>Your friend plans to go to your country to study but has concern about expenditure, what is your advice for your friend?</t>
-  </si>
-  <si>
-    <t>20141108ML</t>
-  </si>
-  <si>
-    <t>Your city is planning to spend more budget on one of the following three projects, which do you think is the most important. Expending tourism, building city parks, improving the public transportation system.</t>
-  </si>
-  <si>
-    <t>20141129ML</t>
-  </si>
-  <si>
-    <t>20150328ML</t>
-  </si>
-  <si>
-    <t>If you were making a donation, which of the follow organizations would you be making your donation to? Environmental protection group, city library, or animal shelter?</t>
-  </si>
-  <si>
-    <t>20140505NA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Topic7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>练习答案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>标准答案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生词总结</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2547,249 +2547,53 @@
 show up
 </t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some people prefer take a job with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>single task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, others prefer to do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">multiple tasks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on a job. Which do you prefer?</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Some people prefer take a job with a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>single task</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, others prefer to do </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">multiple tasks </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>on a job. Which do you prefer?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">面试--
-If your friend is going to an important </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>interview</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, 
-what suggestions would you give him?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">入职---
-What </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>suggestions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> would you give a friend who is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> starting a new job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. 
-Give examples and details in your response.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>选择工作--
-Which of the following</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> jobs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> would you like to do? 
-Actor / actress, computer programmer or business owner.
-Explain yourself in details.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Your friend plans to go to your country to study but has concern about </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>expenditure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, what is your advice for your friend?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">政府：旅游、公园、交通
-Your city is planning to spend more budget on one of the following three projects, which do you think is the most important. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Expending tourism, 
-building city parks,
-improving the public transportation system.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">政府：健康生活
-Do you agree or disagree with the statement that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>governments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> should spend money on encouraging citizens to live</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> healthier life style</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2827,409 +2631,80 @@
       <t xml:space="preserve"> 
 Discuss the advantage and disadvantage of attracting a large amount of foreign tourists to tourism sites, give examples to illustrate your points.</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">政府：保护动物
-Do you think the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>government</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> should spend money on</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> saving endangered animals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> or should private sector take on such responsibility?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a successful business---
-Do you agree or disagree with the statement that in order to run a successful </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>business</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, a person needs to be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>friendly and outgoing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>着装---
-Some people prefer to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> dress formally</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> in work place, others like to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dress casually</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> in work place. Which do you prefer?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">保护环境
-Do you agree or disagree with the statement that protecting the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>environment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> is as important as</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> economic development</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">捐赠
-If you were making a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>donation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, which of the follow organizations would you be making your donation to? 
-Environmental protection group, city library, or animal shelter?</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.我会建议我的朋友回顾以往的工作经历，</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总结自己在专业上的优势。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-对企业来说，一个员工最重要的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>素质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是具备专业的技能，有能力做好这份工作。我会鼓励我的朋友</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在简历上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>体现出来自己</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>具备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个岗位需要的技能，同时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在面试现场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也能重点表达出来这一点。让面试官能短时间内了解到他在专业上的优势。
-2.面试的时候</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保持乐观的心态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。乐观的心态能使人放松。人在发送的时候会有更好的临床发挥。
-例如我有一个朋友李雷，他在编程上相当厉害，但是总是羞于表达。这导致他经常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在面试现场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">不能很放松的把自己掌握的专业知识表达出来，从而错过很多很好的就业机会。
-If my friend is going to an inportant interview, I will give him or her these suggestions.
-First, I will suggest my friend to review him or her work experience and sumrise his or her advantage in his or her professional feild. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>When it comes to a company, the most important ablity of a employee is the profrssional skills which enable his or her could accoplish the job well.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-I will encourage my friend to emhasize this point on his or her resume. And at the same time,express this point when he or she communicates with interviewer. Let interviewer understand his or her strong technical knowledge at a very short time.
-Second, I will suggest my friend to keep optimesstic attitude toward the interview. optimesstic attitude help people relax. When people feel relax he or she could proferm thing well. For example my friends Lilei, he is very good at programing, but he has a negtive attitude to express himself. So he missed a lot of good job offers.
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.主动向他人请教。
-2.主动承担更多的责任。
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技术能力
 专业技能 
 简历  
 v.着重</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>technical knowledge
 professional skills
 resume
 emphasizes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.成就感
+a.满足的
+过得充实</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功的商业---
+Do you agree or disagree with the statement that in order to run a successful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>business</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, a person needs to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>friendly and outgoing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievability
+satisfied
+live one's life fully,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3303,31 +2778,558 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>achievability
-satisfied
-live one's life fully,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.成就感
-a.满足的
-过得充实</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>想不出具体的例子????</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>想不出具体的例子????</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.崇拜乔布斯
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">面试--
+If your friend is going to an important </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 
+what suggestions would you give him?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.我会建议我的朋友回顾以往的工作经历，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总结自己在专业上的优势。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+对企业来说，一个员工最重要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>素质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是具备专业的技能，有能力做好这份工作。我会鼓励我的朋友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在简历上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体现出来自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个岗位需要的技能，同时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在面试现场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也能重点表达出来这一点。让面试官能短时间内了解到他在专业上的优势。
+2.面试的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持乐观的心态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。乐观的心态能使人放松。人在发送的时候会有更好的临床发挥。
+例如我有一个朋友李雷，他在编程上相当厉害，但是总是羞于表达。这导致他经常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在面试现场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">不能很放松的把自己掌握的专业知识表达出来，从而错过很多很好的就业机会。
+If my friend is going to an inportant interview, I will give him or her these suggestions.
+First, I will suggest my friend to review him or her work experience and sumrise his or her advantage in his or her professional feild. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>When it comes to a company, the most important ablity of a employee is the profrssional skills which enable his or her could accoplish the job well.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+I will encourage my friend to emhasize this point on his or her resume. And at the same time,express this point when he or she communicates with interviewer. Let interviewer understand his or her strong technical knowledge at a very short time.
+Second, I will suggest my friend to keep optimesstic attitude toward the interview. optimesstic attitude help people relax. When people feel relax he or she could proferm thing well. For example my friends Lilei, he is very good at programing, but he has a negtive attitude to express himself. So he missed a lot of good job offers.
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">入职---
+What </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suggestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> would you give a friend who is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> starting a new job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 
+Give examples and details in your response.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择工作--
+Which of the following</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jobs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> would you like to do? 
+Actor / actress, computer programmer or business owner.
+Explain yourself in details.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>工作场合的着装---
+Some people prefer to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dress formally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in work place, others like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dress casually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in work place. Which do you prefer?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your friend plans to go to your country to study but has concern about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expenditure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, what is your advice for your friend?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：旅游、公园、交通
+Your city is planning to spend more budget on one of the following three projects, which do you think is the most important. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Expending tourism, 
+building city parks,
+improving the public transportation system.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：健康生活
+Do you agree or disagree with the statement that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>governments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> should spend money on encouraging citizens to live</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> healthier life style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">政府：保护动物
+Do you think the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>government</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> should spend money on</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> saving endangered animals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or should private sector take on such responsibility?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">保护环境
+Do you agree or disagree with the statement that protecting the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is as important as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> economic development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">捐赠
+If you were making a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>donation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, which of the follow organizations would you be making your donation to? 
+Environmental protection group, city library, or animal shelter?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+主动请教某人
+v.遇到(问题)
+n.进步</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.崇拜乔布斯
 2.擅长
 我比较擅长学习这类知识。写代码给我很多</t>
     </r>
@@ -3346,6 +3348,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。让我觉得开心和满足。
@@ -3366,6 +3369,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。毕业后继续从事这份工作是一件令人开心的事儿。
@@ -3387,6 +3391,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -3407,6 +3412,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> So I want to make a countribution to this field.
@@ -3430,44 +3436,51 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">If I become a computer programmer after graduation will be a excellent thing to me.
+      <t xml:space="preserve">  If I become a computer programmer after graduation will be a excellent thing to me.
 </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.线上了解情况。
-2.本地考察。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>new employee
+experienced/old employee
+Take the initiative to ask/consult sb.
+Take the initiative in asking for advice
+encounter
+progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">想不出具体的例子????
+不先写中文构思，直接用英语几乎想不出该说什么！！！！！！！
+-------------
+1.主动向他人请教。
+A.职场新人总是会在入职初期遇到很多问题，主动请教老员工是最快的进步手段。
+B.例如我的朋友李雷，在刚毕业入职一个大型互联网公司后，遇到了很多在学校里没学过的技术问题.主动请教有经验的其他老同事，帮助他在入职初期职业技能短时内获利很大提升。
+2.主动承担更多的责任。
+A.作为一个新人主动承担更多责能为自己创造更多机会。
+B.还是我的朋友李雷，刚入职时除了完成自己本职工作，总是积极的承担更多工作。这部分额外的工作给了他更多锻炼的机会。以至于获得了比其他新人更快的升职。
+I my friend is starting a new job, I will give him or her these suggestions.
+First, take the initiative to ask the experienced employees when he or she encount problems.
+As a new employee , it is very common to encount work problems, asking an experienced colleague is the faster way to solve the problem and make a progress.
+As my friend LiLei, he started a new job in a big soft ware company after graduation. As a new employee he encontered a lot of problems he never study in school. He never shy to ask other experienced collegues for advice. And this enabled him make a big progress in a short time.
+Second, I will suggest my friend to response more duties.
+Because as a new empolyee, response more work will enable him or she have more oppotunity.
+Also my friend LiLei, he often ask more tasks when he accomplish his own work. So this extra work give him more oppotunity to practice. So as to he climb the corporate ladder faster than other new employees.
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3756,2317 +3769,2432 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2226">
+  <cellStyleXfs count="2344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapTex